--- a/data/pca/factorExposure/factorExposure_2018-05-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01027440009636309</v>
+        <v>0.01781517409873895</v>
       </c>
       <c r="C2">
-        <v>-0.02674360506330399</v>
+        <v>-0.01814393055875797</v>
       </c>
       <c r="D2">
-        <v>-0.01577033645251494</v>
+        <v>0.0291197124524541</v>
       </c>
       <c r="E2">
-        <v>-0.0176948597742859</v>
+        <v>-0.01705009486094591</v>
       </c>
       <c r="F2">
-        <v>0.1022860155336453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.004527118517809018</v>
+      </c>
+      <c r="G2">
+        <v>0.04366529356749433</v>
+      </c>
+      <c r="H2">
+        <v>-0.04774293521318911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08214568886812101</v>
+        <v>0.07439147000591585</v>
       </c>
       <c r="C3">
-        <v>-0.05403887343596996</v>
+        <v>0.01223991889201997</v>
       </c>
       <c r="D3">
-        <v>-0.06678962132295878</v>
+        <v>0.07566594637073007</v>
       </c>
       <c r="E3">
-        <v>0.03710181964316033</v>
+        <v>-0.002151020549755204</v>
       </c>
       <c r="F3">
-        <v>0.3544911530094949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.01828248011286902</v>
+      </c>
+      <c r="G3">
+        <v>0.1616435321312594</v>
+      </c>
+      <c r="H3">
+        <v>-0.136386783593709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04439502446000052</v>
+        <v>0.04111387486799934</v>
       </c>
       <c r="C4">
-        <v>-0.0172561057167953</v>
+        <v>-0.004727038692781909</v>
       </c>
       <c r="D4">
-        <v>-0.0050116581548378</v>
+        <v>0.06260645700916861</v>
       </c>
       <c r="E4">
-        <v>-0.04962905294834634</v>
+        <v>0.0189672489104296</v>
       </c>
       <c r="F4">
-        <v>0.06569928604974642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.04371530744810864</v>
+      </c>
+      <c r="G4">
+        <v>0.04143337645049212</v>
+      </c>
+      <c r="H4">
+        <v>-0.05795898207814816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0321243827849633</v>
+        <v>0.02481747989679337</v>
       </c>
       <c r="C6">
-        <v>-0.01748532813220268</v>
+        <v>-0.001216798590902162</v>
       </c>
       <c r="D6">
-        <v>-0.01000257428630578</v>
+        <v>0.0620237358739294</v>
       </c>
       <c r="E6">
-        <v>-0.02952254346527345</v>
+        <v>0.003491342072813075</v>
       </c>
       <c r="F6">
-        <v>0.01136762858679151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02987004851990985</v>
+      </c>
+      <c r="G6">
+        <v>0.01546691410158683</v>
+      </c>
+      <c r="H6">
+        <v>-0.06577330198014937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04078363785023061</v>
+        <v>0.01542849265053217</v>
       </c>
       <c r="C7">
-        <v>0.02520784555519252</v>
+        <v>-0.003251567291722506</v>
       </c>
       <c r="D7">
-        <v>-0.01786150018558876</v>
+        <v>0.03512036434132532</v>
       </c>
       <c r="E7">
-        <v>-0.03772554603872335</v>
+        <v>0.04418759842246846</v>
       </c>
       <c r="F7">
-        <v>0.04362619433479177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.00336915089370544</v>
+      </c>
+      <c r="G7">
+        <v>0.02307709565201631</v>
+      </c>
+      <c r="H7">
+        <v>-0.04389976299391898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01863429415999479</v>
+        <v>0.004761473072391131</v>
       </c>
       <c r="C8">
-        <v>-0.007644365469127935</v>
+        <v>0.002081275025666739</v>
       </c>
       <c r="D8">
-        <v>-0.01666246667667357</v>
+        <v>0.0148385006016309</v>
       </c>
       <c r="E8">
-        <v>-0.04308113198258227</v>
+        <v>0.008164098157077077</v>
       </c>
       <c r="F8">
-        <v>0.07259164067205882</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01753142947153609</v>
+      </c>
+      <c r="G8">
+        <v>0.04051174866504755</v>
+      </c>
+      <c r="H8">
+        <v>-0.0391579796123982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03358799033537986</v>
+        <v>0.03088834645098013</v>
       </c>
       <c r="C9">
-        <v>-0.01299846479688558</v>
+        <v>-0.001550217398665201</v>
       </c>
       <c r="D9">
-        <v>-0.01392609735891972</v>
+        <v>0.04631940454999556</v>
       </c>
       <c r="E9">
-        <v>-0.03998555094159448</v>
+        <v>0.008365846215771815</v>
       </c>
       <c r="F9">
-        <v>0.08331488962447528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01960983085188234</v>
+      </c>
+      <c r="G9">
+        <v>0.04600667299254908</v>
+      </c>
+      <c r="H9">
+        <v>-0.05645229291180186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03476306796491908</v>
+        <v>0.1225282628577964</v>
       </c>
       <c r="C10">
-        <v>-0.007184433119748515</v>
+        <v>0.006426707056302519</v>
       </c>
       <c r="D10">
-        <v>0.08771232530851125</v>
+        <v>-0.1597768691258867</v>
       </c>
       <c r="E10">
-        <v>0.1340756708374905</v>
+        <v>0.001218814572884086</v>
       </c>
       <c r="F10">
-        <v>0.05615141009964805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03536746488899992</v>
+      </c>
+      <c r="G10">
+        <v>0.03000093232395432</v>
+      </c>
+      <c r="H10">
+        <v>-0.002488185889637073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02648984009066266</v>
+        <v>0.01709464416402677</v>
       </c>
       <c r="C11">
-        <v>-0.02299322950413594</v>
+        <v>0.009763319365101369</v>
       </c>
       <c r="D11">
-        <v>-0.01852119659323797</v>
+        <v>0.04974238859330286</v>
       </c>
       <c r="E11">
-        <v>-0.03758069040578442</v>
+        <v>-0.001504597353114649</v>
       </c>
       <c r="F11">
-        <v>0.03798651117403538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.01127518309479494</v>
+      </c>
+      <c r="G11">
+        <v>0.02741554397720264</v>
+      </c>
+      <c r="H11">
+        <v>-0.04982898843530824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03582789123476555</v>
+        <v>0.02200686316903264</v>
       </c>
       <c r="C12">
-        <v>-0.02276917901581252</v>
+        <v>0.006217834733817759</v>
       </c>
       <c r="D12">
-        <v>-0.01145618947589157</v>
+        <v>0.04818836759126684</v>
       </c>
       <c r="E12">
-        <v>-0.04369490568393649</v>
+        <v>0.009451732166423834</v>
       </c>
       <c r="F12">
-        <v>0.01222294051215716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01443265747892854</v>
+      </c>
+      <c r="G12">
+        <v>0.007696392016650056</v>
+      </c>
+      <c r="H12">
+        <v>-0.02227383873633949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.007698216625668646</v>
+        <v>0.02336252564602922</v>
       </c>
       <c r="C13">
-        <v>-0.0221639325227184</v>
+        <v>-0.01416052917082544</v>
       </c>
       <c r="D13">
-        <v>-0.002563393903583576</v>
+        <v>0.02449597104669322</v>
       </c>
       <c r="E13">
-        <v>-0.01668333320716886</v>
+        <v>-0.01201432761951772</v>
       </c>
       <c r="F13">
-        <v>0.07674175873985148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02042701974852433</v>
+      </c>
+      <c r="G13">
+        <v>0.06232003631581908</v>
+      </c>
+      <c r="H13">
+        <v>-0.07775191782999089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02118415220938737</v>
+        <v>0.01569549824101448</v>
       </c>
       <c r="C14">
-        <v>-0.0001331667326779572</v>
+        <v>-0.001292301934494247</v>
       </c>
       <c r="D14">
-        <v>-0.004709368069002066</v>
+        <v>0.01553885110421217</v>
       </c>
       <c r="E14">
-        <v>-0.03219957107116429</v>
+        <v>0.01439475126443977</v>
       </c>
       <c r="F14">
-        <v>0.05289894168710998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01376182374146218</v>
+      </c>
+      <c r="G14">
+        <v>0.04052540556590524</v>
+      </c>
+      <c r="H14">
+        <v>-0.0161211322163912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02603203772988493</v>
+        <v>0.02013672694707314</v>
       </c>
       <c r="C16">
-        <v>-0.02223288149875285</v>
+        <v>0.009507051376726873</v>
       </c>
       <c r="D16">
-        <v>-0.01883261036197113</v>
+        <v>0.04060625346326704</v>
       </c>
       <c r="E16">
-        <v>-0.04350019315014313</v>
+        <v>0.001984853219978144</v>
       </c>
       <c r="F16">
-        <v>0.03697097671462879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01468755281390472</v>
+      </c>
+      <c r="G16">
+        <v>0.02227912682233982</v>
+      </c>
+      <c r="H16">
+        <v>-0.03825508140710707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02818175966231112</v>
+        <v>0.02397910163266084</v>
       </c>
       <c r="C19">
-        <v>-0.02286106177413724</v>
+        <v>-0.001206920827873668</v>
       </c>
       <c r="D19">
-        <v>-0.02039442321346296</v>
+        <v>0.04487559275627657</v>
       </c>
       <c r="E19">
-        <v>-0.04054618031131559</v>
+        <v>0.006617754653294549</v>
       </c>
       <c r="F19">
-        <v>0.0873373144216002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02432254982505775</v>
+      </c>
+      <c r="G19">
+        <v>0.05471345730039923</v>
+      </c>
+      <c r="H19">
+        <v>-0.06569263468420114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0007142908832658274</v>
+        <v>0.007733521124830384</v>
       </c>
       <c r="C20">
-        <v>0.006589077445616768</v>
+        <v>-0.005789972240116008</v>
       </c>
       <c r="D20">
-        <v>-0.005654171005828566</v>
+        <v>0.0222582741467057</v>
       </c>
       <c r="E20">
-        <v>-0.02322085693656014</v>
+        <v>0.003776869287712965</v>
       </c>
       <c r="F20">
-        <v>0.06861744821013037</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01311336540894067</v>
+      </c>
+      <c r="G20">
+        <v>0.05532442259288146</v>
+      </c>
+      <c r="H20">
+        <v>-0.03155679805117933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01510614384212379</v>
+        <v>0.01370604896507622</v>
       </c>
       <c r="C21">
-        <v>0.01861976175346054</v>
+        <v>-0.007079982776910675</v>
       </c>
       <c r="D21">
-        <v>-0.02853262170427899</v>
+        <v>0.02519963651582632</v>
       </c>
       <c r="E21">
-        <v>-0.0257273474721686</v>
+        <v>0.02016773984280848</v>
       </c>
       <c r="F21">
-        <v>0.03303778635052436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.006736277310490149</v>
+      </c>
+      <c r="G21">
+        <v>0.04923101925377604</v>
+      </c>
+      <c r="H21">
+        <v>-0.04494800904238628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02362010947746063</v>
+        <v>0.01507738963384368</v>
       </c>
       <c r="C24">
-        <v>-0.02009223999229786</v>
+        <v>0.004059654967802153</v>
       </c>
       <c r="D24">
-        <v>-0.00666529029194435</v>
+        <v>0.04368791084518067</v>
       </c>
       <c r="E24">
-        <v>-0.02698947217519793</v>
+        <v>0.0003359105141920643</v>
       </c>
       <c r="F24">
-        <v>0.03948562318984987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01004228402062748</v>
+      </c>
+      <c r="G24">
+        <v>0.0174795692435146</v>
+      </c>
+      <c r="H24">
+        <v>-0.0468110755147409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02718615770164168</v>
+        <v>0.02713099432930646</v>
       </c>
       <c r="C25">
-        <v>-0.01823787543777677</v>
+        <v>0.00177866577538583</v>
       </c>
       <c r="D25">
-        <v>-0.0213986992887109</v>
+        <v>0.04661878931505721</v>
       </c>
       <c r="E25">
-        <v>-0.03388908225015744</v>
+        <v>0.005940806998797888</v>
       </c>
       <c r="F25">
-        <v>0.04106061880431716</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0177041440061261</v>
+      </c>
+      <c r="G25">
+        <v>0.02229214649509811</v>
+      </c>
+      <c r="H25">
+        <v>-0.04428972577604526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01519844496998088</v>
+        <v>0.01480408892654158</v>
       </c>
       <c r="C26">
-        <v>-0.01352621419323751</v>
+        <v>-0.0190658044311245</v>
       </c>
       <c r="D26">
-        <v>-0.01915688316334815</v>
+        <v>0.009941406944171022</v>
       </c>
       <c r="E26">
-        <v>-0.01092866079869863</v>
+        <v>-5.39874449922584e-05</v>
       </c>
       <c r="F26">
-        <v>0.05765028116361798</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.002366514426189209</v>
+      </c>
+      <c r="G26">
+        <v>0.02877046695650686</v>
+      </c>
+      <c r="H26">
+        <v>-0.02518293541306593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.03945850920794831</v>
+        <v>0.01790188371242779</v>
       </c>
       <c r="C27">
-        <v>-0.02816329601622973</v>
+        <v>0.006543524617846975</v>
       </c>
       <c r="D27">
-        <v>0.01905042335164364</v>
+        <v>0.01447395918287356</v>
       </c>
       <c r="E27">
-        <v>-0.03389865712674556</v>
+        <v>0.004191474417449305</v>
       </c>
       <c r="F27">
-        <v>0.02329189362537272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01175574974084311</v>
+      </c>
+      <c r="G27">
+        <v>0.006861370301290524</v>
+      </c>
+      <c r="H27">
+        <v>0.0006110858455103373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05851980848824247</v>
+        <v>0.1713636246864756</v>
       </c>
       <c r="C28">
-        <v>-0.01274215739824949</v>
+        <v>-0.002232584637583355</v>
       </c>
       <c r="D28">
-        <v>0.1187743806001565</v>
+        <v>-0.2049455850996687</v>
       </c>
       <c r="E28">
-        <v>0.1792295318875941</v>
+        <v>0.01148797110927974</v>
       </c>
       <c r="F28">
-        <v>0.04901302110113927</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03007314641368287</v>
+      </c>
+      <c r="G28">
+        <v>0.01617872412793384</v>
+      </c>
+      <c r="H28">
+        <v>0.006106312569245091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02435637164158855</v>
+        <v>0.02015360364001421</v>
       </c>
       <c r="C29">
-        <v>-0.002459825637895425</v>
+        <v>0.0001666247345506268</v>
       </c>
       <c r="D29">
-        <v>-0.005375894228416156</v>
+        <v>0.01604689436130909</v>
       </c>
       <c r="E29">
-        <v>-0.03636304889341602</v>
+        <v>0.01430678961007316</v>
       </c>
       <c r="F29">
-        <v>0.05187800440746728</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.01500110503132119</v>
+      </c>
+      <c r="G29">
+        <v>0.03973152528879791</v>
+      </c>
+      <c r="H29">
+        <v>-0.009458544888865128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04658696202542852</v>
+        <v>0.04344516585627705</v>
       </c>
       <c r="C30">
-        <v>-0.08137254375609064</v>
+        <v>-0.003140684272485241</v>
       </c>
       <c r="D30">
-        <v>-0.01126926323030837</v>
+        <v>0.09362994177483254</v>
       </c>
       <c r="E30">
-        <v>-0.06611863695575734</v>
+        <v>-0.0329095029975708</v>
       </c>
       <c r="F30">
-        <v>0.09856301534303388</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04631183691641616</v>
+      </c>
+      <c r="G30">
+        <v>0.06333702699828754</v>
+      </c>
+      <c r="H30">
+        <v>-0.07952649124083545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04730382329090918</v>
+        <v>0.04797378817073642</v>
       </c>
       <c r="C31">
-        <v>-0.04275534941703223</v>
+        <v>0.009491956513076515</v>
       </c>
       <c r="D31">
-        <v>-0.007406248161591839</v>
+        <v>0.02963480655029727</v>
       </c>
       <c r="E31">
-        <v>-0.02877053682609118</v>
+        <v>-0.0041019850851052</v>
       </c>
       <c r="F31">
-        <v>0.03525180822053383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.005424338984069165</v>
+      </c>
+      <c r="G31">
+        <v>0.01912361006943981</v>
+      </c>
+      <c r="H31">
+        <v>-0.006323679800344732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0252764107853331</v>
+        <v>0.01259373185838994</v>
       </c>
       <c r="C32">
-        <v>0.008293996680990765</v>
+        <v>0.01320171899353278</v>
       </c>
       <c r="D32">
-        <v>-0.02771675242328415</v>
+        <v>0.009160713561306329</v>
       </c>
       <c r="E32">
-        <v>-0.06674727093483268</v>
+        <v>0.02935286608498302</v>
       </c>
       <c r="F32">
-        <v>0.05538573103960575</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03738262896223701</v>
+      </c>
+      <c r="G32">
+        <v>0.03482489303699261</v>
+      </c>
+      <c r="H32">
+        <v>-0.05325219138101089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02822631850421436</v>
+        <v>0.02856072350789677</v>
       </c>
       <c r="C33">
-        <v>-0.04723168156396513</v>
+        <v>-0.0004666447768496942</v>
       </c>
       <c r="D33">
-        <v>-0.0402839271051767</v>
+        <v>0.0463838160126753</v>
       </c>
       <c r="E33">
-        <v>-0.03340097144093046</v>
+        <v>-0.01964575218157185</v>
       </c>
       <c r="F33">
-        <v>0.06749196584441861</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.001233824257644644</v>
+      </c>
+      <c r="G33">
+        <v>0.04926790119893593</v>
+      </c>
+      <c r="H33">
+        <v>-0.0579582280125206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03042100978887397</v>
+        <v>0.02440288454468086</v>
       </c>
       <c r="C34">
-        <v>-0.01501338188116597</v>
+        <v>0.01767236168806815</v>
       </c>
       <c r="D34">
-        <v>-0.01378960138024096</v>
+        <v>0.04446345708083318</v>
       </c>
       <c r="E34">
-        <v>-0.048613336301348</v>
+        <v>0.01262902964419817</v>
       </c>
       <c r="F34">
-        <v>0.04438504910154648</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01815127377617146</v>
+      </c>
+      <c r="G34">
+        <v>0.01344303604527819</v>
+      </c>
+      <c r="H34">
+        <v>-0.03637204065187355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01653491630660052</v>
+        <v>0.01688246395464229</v>
       </c>
       <c r="C36">
-        <v>-0.0007079057310376075</v>
+        <v>-0.006539599117971849</v>
       </c>
       <c r="D36">
-        <v>-0.007489785834787765</v>
+        <v>0.006019912558578184</v>
       </c>
       <c r="E36">
-        <v>-0.01956330988104156</v>
+        <v>0.008874772554781257</v>
       </c>
       <c r="F36">
-        <v>0.02904659800591909</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.002342315021083708</v>
+      </c>
+      <c r="G36">
+        <v>0.0209523016903887</v>
+      </c>
+      <c r="H36">
+        <v>-0.01897234691804445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005602274580400234</v>
+        <v>0.02651861105579009</v>
       </c>
       <c r="C38">
-        <v>-0.00488134248622077</v>
+        <v>0.015654157810559</v>
       </c>
       <c r="D38">
-        <v>-0.01392485423387316</v>
+        <v>0.01567811400438167</v>
       </c>
       <c r="E38">
-        <v>0.02011695551182421</v>
+        <v>-0.0003056606030003837</v>
       </c>
       <c r="F38">
-        <v>0.03993261476564292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.009123698855357461</v>
+      </c>
+      <c r="G38">
+        <v>0.02455225303602795</v>
+      </c>
+      <c r="H38">
+        <v>-0.04309220333893943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02450795108182862</v>
+        <v>0.01041844369718668</v>
       </c>
       <c r="C39">
-        <v>-0.02336114842494597</v>
+        <v>0.005569779305130255</v>
       </c>
       <c r="D39">
-        <v>-0.03350504596215041</v>
+        <v>0.08932468488898325</v>
       </c>
       <c r="E39">
-        <v>-0.05396346801653785</v>
+        <v>-0.007854099699477014</v>
       </c>
       <c r="F39">
-        <v>0.05350754609880047</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01662940058234156</v>
+      </c>
+      <c r="G39">
+        <v>0.04107914194297768</v>
+      </c>
+      <c r="H39">
+        <v>-0.07719730853527537</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01376200495969004</v>
+        <v>0.02685723665692374</v>
       </c>
       <c r="C40">
-        <v>-0.05144724553077943</v>
+        <v>-4.463914174459877e-05</v>
       </c>
       <c r="D40">
-        <v>0.004200056569879509</v>
+        <v>0.03452397472147233</v>
       </c>
       <c r="E40">
-        <v>-0.03871838501146387</v>
+        <v>-0.0252360289850299</v>
       </c>
       <c r="F40">
-        <v>0.05930783566772116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03446490280595085</v>
+      </c>
+      <c r="G40">
+        <v>0.02331601966393866</v>
+      </c>
+      <c r="H40">
+        <v>-0.07140158785915023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.003291045024092379</v>
+        <v>0.01299381839871518</v>
       </c>
       <c r="C41">
-        <v>-0.0001479177731293885</v>
+        <v>-0.00251853118677998</v>
       </c>
       <c r="D41">
-        <v>-0.00887043419322338</v>
+        <v>-0.01284818829911274</v>
       </c>
       <c r="E41">
-        <v>-0.001546059166434531</v>
+        <v>0.002678274657407964</v>
       </c>
       <c r="F41">
-        <v>0.008662560272523993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.002893423014424919</v>
+      </c>
+      <c r="G41">
+        <v>0.0004462649922759132</v>
+      </c>
+      <c r="H41">
+        <v>0.001254851044213829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2269980513362437</v>
+        <v>0.1435477256847453</v>
       </c>
       <c r="C42">
-        <v>-0.2491089423673297</v>
+        <v>-0.0767871841991654</v>
       </c>
       <c r="D42">
-        <v>-0.6961798328116755</v>
+        <v>0.2408953735123311</v>
       </c>
       <c r="E42">
-        <v>0.519680861522961</v>
+        <v>-0.2125403164748323</v>
       </c>
       <c r="F42">
-        <v>-0.2781109113221659</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8937936204459792</v>
+      </c>
+      <c r="G42">
+        <v>-0.2242541010623269</v>
+      </c>
+      <c r="H42">
+        <v>-0.003902435241712774</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003440459063390719</v>
+        <v>0.01407964871813207</v>
       </c>
       <c r="C43">
-        <v>-0.003198538640814167</v>
+        <v>-0.002755519364675202</v>
       </c>
       <c r="D43">
-        <v>-0.01116729655897365</v>
+        <v>-0.008647114517404129</v>
       </c>
       <c r="E43">
-        <v>-0.00359994364312867</v>
+        <v>7.921425483226323e-05</v>
       </c>
       <c r="F43">
-        <v>0.0268500057293247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003393683395877267</v>
+      </c>
+      <c r="G43">
+        <v>0.001098491712619695</v>
+      </c>
+      <c r="H43">
+        <v>-0.008009050945672091</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0267367731435379</v>
+        <v>0.01620503847314263</v>
       </c>
       <c r="C44">
-        <v>-0.004882728237492678</v>
+        <v>0.005039544597229613</v>
       </c>
       <c r="D44">
-        <v>-0.01821832123422561</v>
+        <v>0.04127724239494003</v>
       </c>
       <c r="E44">
-        <v>-0.01963127127073043</v>
+        <v>0.01186406073640895</v>
       </c>
       <c r="F44">
-        <v>0.09982814297942777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.00197825775359453</v>
+      </c>
+      <c r="G44">
+        <v>0.04183161741331398</v>
+      </c>
+      <c r="H44">
+        <v>-0.06696983352370522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01905158561822682</v>
+        <v>0.0128895487557744</v>
       </c>
       <c r="C46">
-        <v>-0.01421771409969919</v>
+        <v>-0.005637391827484715</v>
       </c>
       <c r="D46">
-        <v>-0.02332191863430358</v>
+        <v>0.01466838100341194</v>
       </c>
       <c r="E46">
-        <v>-0.04185661190714601</v>
+        <v>0.001305119069497902</v>
       </c>
       <c r="F46">
-        <v>0.06257683532901173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01000986500578771</v>
+      </c>
+      <c r="G46">
+        <v>0.04419301563474414</v>
+      </c>
+      <c r="H46">
+        <v>-0.01090079147342151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07539492753166992</v>
+        <v>0.06783543017365098</v>
       </c>
       <c r="C47">
-        <v>-0.05678003954896305</v>
+        <v>0.02471902330983119</v>
       </c>
       <c r="D47">
-        <v>-5.14879527032201e-05</v>
+        <v>0.05549825205030912</v>
       </c>
       <c r="E47">
-        <v>-0.03817106172404802</v>
+        <v>0.004425837327449807</v>
       </c>
       <c r="F47">
-        <v>0.0162502058055202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01304608548766515</v>
+      </c>
+      <c r="G47">
+        <v>-0.009656041551022667</v>
+      </c>
+      <c r="H47">
+        <v>0.01719321732604876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01648491060202956</v>
+        <v>0.01843829804439935</v>
       </c>
       <c r="C48">
-        <v>-0.01196358579593164</v>
+        <v>0.004617243404061894</v>
       </c>
       <c r="D48">
-        <v>-0.01311572684606725</v>
+        <v>0.01506559253069328</v>
       </c>
       <c r="E48">
-        <v>-0.02289527743357057</v>
+        <v>0.001479217709764024</v>
       </c>
       <c r="F48">
-        <v>0.03437364405235344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.006468761234680291</v>
+      </c>
+      <c r="G48">
+        <v>0.02276070841259076</v>
+      </c>
+      <c r="H48">
+        <v>-0.02044265843957245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08062337172739248</v>
+        <v>0.06746743450273733</v>
       </c>
       <c r="C50">
-        <v>-0.04243085897872923</v>
+        <v>0.02219968741637957</v>
       </c>
       <c r="D50">
-        <v>-0.02213620434330353</v>
+        <v>0.05465123947703116</v>
       </c>
       <c r="E50">
-        <v>-0.04106085001091034</v>
+        <v>0.01539616187809014</v>
       </c>
       <c r="F50">
-        <v>0.02778048289209957</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.004692814905405054</v>
+      </c>
+      <c r="G50">
+        <v>0.004439375627790417</v>
+      </c>
+      <c r="H50">
+        <v>0.01041312622315329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01774205738176606</v>
+        <v>0.01791874361594892</v>
       </c>
       <c r="C51">
-        <v>-0.005756126883340873</v>
+        <v>-0.001503197810497087</v>
       </c>
       <c r="D51">
-        <v>0.00190278781004568</v>
+        <v>0.010026551438226</v>
       </c>
       <c r="E51">
-        <v>0.0036354705330321</v>
+        <v>0.008466200390440586</v>
       </c>
       <c r="F51">
-        <v>0.08691897159485734</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.003135308121846538</v>
+      </c>
+      <c r="G51">
+        <v>0.03802224165502009</v>
+      </c>
+      <c r="H51">
+        <v>-0.05065946894853092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08227380568690286</v>
+        <v>0.08098108524539224</v>
       </c>
       <c r="C53">
-        <v>-0.06259498061638148</v>
+        <v>0.03154310479851859</v>
       </c>
       <c r="D53">
-        <v>-0.001065640666318531</v>
+        <v>0.09300805105576039</v>
       </c>
       <c r="E53">
-        <v>-0.05470818918326352</v>
+        <v>0.006531331756000747</v>
       </c>
       <c r="F53">
-        <v>-0.03777308311806419</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02919792453102172</v>
+      </c>
+      <c r="G53">
+        <v>-0.03447783280876217</v>
+      </c>
+      <c r="H53">
+        <v>0.02736826754398848</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01916582091601129</v>
+        <v>0.02805226036947462</v>
       </c>
       <c r="C54">
-        <v>-0.001124101471490454</v>
+        <v>0.007816981539629671</v>
       </c>
       <c r="D54">
-        <v>-0.00319733776967319</v>
+        <v>-0.009897645490940798</v>
       </c>
       <c r="E54">
-        <v>-0.02695647480327854</v>
+        <v>0.007972035651435625</v>
       </c>
       <c r="F54">
-        <v>0.03749840079680074</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.004455546508867798</v>
+      </c>
+      <c r="G54">
+        <v>0.03796091361231556</v>
+      </c>
+      <c r="H54">
+        <v>-0.00520843625395656</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08516824064534659</v>
+        <v>0.06555488978871668</v>
       </c>
       <c r="C55">
-        <v>-0.05287171874786484</v>
+        <v>0.02801281402070951</v>
       </c>
       <c r="D55">
-        <v>-0.01229837157323602</v>
+        <v>0.08740793970103768</v>
       </c>
       <c r="E55">
-        <v>-0.05845322192962479</v>
+        <v>0.01283419449322653</v>
       </c>
       <c r="F55">
-        <v>-0.02863664643988508</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02031518072573961</v>
+      </c>
+      <c r="G55">
+        <v>-0.01268630566529039</v>
+      </c>
+      <c r="H55">
+        <v>0.03592260052390243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1161359831147823</v>
+        <v>0.1133763563254834</v>
       </c>
       <c r="C56">
-        <v>-0.09117819477142074</v>
+        <v>0.04782214104690036</v>
       </c>
       <c r="D56">
-        <v>0.03569383709602361</v>
+        <v>0.1141574549517511</v>
       </c>
       <c r="E56">
-        <v>-0.0817584578209327</v>
+        <v>0.004681337100324888</v>
       </c>
       <c r="F56">
-        <v>-0.07045763092199306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0544511390798394</v>
+      </c>
+      <c r="G56">
+        <v>-0.06799102093071573</v>
+      </c>
+      <c r="H56">
+        <v>0.05438316963201688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03451889971786064</v>
+        <v>0.03270692565918844</v>
       </c>
       <c r="C57">
-        <v>-0.03953994496547998</v>
+        <v>-0.01323165316597579</v>
       </c>
       <c r="D57">
-        <v>-0.01452540387215168</v>
+        <v>0.03498197573734651</v>
       </c>
       <c r="E57">
-        <v>-0.002454673065551004</v>
+        <v>-0.0099576943271857</v>
       </c>
       <c r="F57">
-        <v>0.05045144908653436</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.005104920514368309</v>
+      </c>
+      <c r="G57">
+        <v>0.07141138550342631</v>
+      </c>
+      <c r="H57">
+        <v>-0.05145836352515062</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1327276964041038</v>
+        <v>0.1381563991759322</v>
       </c>
       <c r="C58">
-        <v>-0.2218668770436742</v>
+        <v>0.04078945221624186</v>
       </c>
       <c r="D58">
-        <v>-0.1176180322426747</v>
+        <v>0.1593738494630861</v>
       </c>
       <c r="E58">
-        <v>-0.112447876590029</v>
+        <v>-0.2308131755897059</v>
       </c>
       <c r="F58">
-        <v>0.5091391993765072</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.09312535810425777</v>
+      </c>
+      <c r="G58">
+        <v>0.7990542117162058</v>
+      </c>
+      <c r="H58">
+        <v>0.4191873350048348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04260695910486943</v>
+        <v>0.1841013312879181</v>
       </c>
       <c r="C59">
-        <v>-0.03113494342917038</v>
+        <v>0.006395653691086498</v>
       </c>
       <c r="D59">
-        <v>0.1288480650518992</v>
+        <v>-0.2029839399396917</v>
       </c>
       <c r="E59">
-        <v>0.14394717446904</v>
+        <v>-0.005897826835320685</v>
       </c>
       <c r="F59">
-        <v>0.07331592036615829</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.0007264857349617289</v>
+      </c>
+      <c r="G59">
+        <v>0.01644440810997153</v>
+      </c>
+      <c r="H59">
+        <v>-0.0257691905909005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1122291500475013</v>
+        <v>0.1978762065760037</v>
       </c>
       <c r="C60">
-        <v>-0.1258987896603583</v>
+        <v>0.02465778026396861</v>
       </c>
       <c r="D60">
-        <v>-0.0128172522898113</v>
+        <v>0.03537987827196915</v>
       </c>
       <c r="E60">
-        <v>0.03434707332669675</v>
+        <v>-0.05507740186986428</v>
       </c>
       <c r="F60">
-        <v>0.1620226749922005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.05371691577371904</v>
+      </c>
+      <c r="G60">
+        <v>0.03387277650947395</v>
+      </c>
+      <c r="H60">
+        <v>-0.360665578879713</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02136000273221833</v>
+        <v>0.01886839605603149</v>
       </c>
       <c r="C61">
-        <v>-0.01436922201697474</v>
+        <v>0.008948058087744864</v>
       </c>
       <c r="D61">
-        <v>-0.0231009712707209</v>
+        <v>0.05695564258478729</v>
       </c>
       <c r="E61">
-        <v>-0.03607074781903374</v>
+        <v>0.002175868662587852</v>
       </c>
       <c r="F61">
-        <v>0.02377944945510738</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02070672412683208</v>
+      </c>
+      <c r="G61">
+        <v>0.02667778980837283</v>
+      </c>
+      <c r="H61">
+        <v>-0.05901431423161976</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01049997432523983</v>
+        <v>0.00983624872484164</v>
       </c>
       <c r="C63">
-        <v>-0.007735501624146096</v>
+        <v>-0.002200251488195903</v>
       </c>
       <c r="D63">
-        <v>-0.018963481994229</v>
+        <v>0.0244023099566837</v>
       </c>
       <c r="E63">
-        <v>-0.02863414351726464</v>
+        <v>0.005015932233704142</v>
       </c>
       <c r="F63">
-        <v>0.007225943658206145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01108231452112139</v>
+      </c>
+      <c r="G63">
+        <v>0.01686943720314361</v>
+      </c>
+      <c r="H63">
+        <v>-0.01546769359701759</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03522067037173237</v>
+        <v>0.03595047473543384</v>
       </c>
       <c r="C64">
-        <v>-0.009027044078461388</v>
+        <v>0.008055388401367203</v>
       </c>
       <c r="D64">
-        <v>-0.01367663530289485</v>
+        <v>0.04304738232398206</v>
       </c>
       <c r="E64">
-        <v>-0.03972454661809643</v>
+        <v>0.01036048406484139</v>
       </c>
       <c r="F64">
-        <v>0.03053515404592466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.002759386718584484</v>
+      </c>
+      <c r="G64">
+        <v>0.007236383912763082</v>
+      </c>
+      <c r="H64">
+        <v>-0.04910323702648361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03525693881432078</v>
+        <v>0.03978679453437287</v>
       </c>
       <c r="C65">
-        <v>-0.01903475321172948</v>
+        <v>0.001177670176706256</v>
       </c>
       <c r="D65">
-        <v>-0.009974611738290529</v>
+        <v>0.07041262593937563</v>
       </c>
       <c r="E65">
-        <v>-0.03162253116208302</v>
+        <v>0.005348678802947165</v>
       </c>
       <c r="F65">
-        <v>0.005081826547065637</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03877782069661091</v>
+      </c>
+      <c r="G65">
+        <v>-0.001063699949209162</v>
+      </c>
+      <c r="H65">
+        <v>-0.0746669150553147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03044449522387275</v>
+        <v>0.01909759654420327</v>
       </c>
       <c r="C66">
-        <v>-0.03648587700665198</v>
+        <v>0.01270704792769417</v>
       </c>
       <c r="D66">
-        <v>-0.02261710346863065</v>
+        <v>0.1128651297037359</v>
       </c>
       <c r="E66">
-        <v>-0.07202714130983694</v>
+        <v>-0.00937025872939125</v>
       </c>
       <c r="F66">
-        <v>0.03785490910609234</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03855221458030383</v>
+      </c>
+      <c r="G66">
+        <v>0.03759795480959649</v>
+      </c>
+      <c r="H66">
+        <v>-0.08010473618600662</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0132175769758315</v>
+        <v>0.04725662145993385</v>
       </c>
       <c r="C67">
-        <v>-0.01432322080229488</v>
+        <v>0.01734842852854618</v>
       </c>
       <c r="D67">
-        <v>-0.002384749957453568</v>
+        <v>0.01904299754658955</v>
       </c>
       <c r="E67">
-        <v>0.02041574475276733</v>
+        <v>-0.002484587634469989</v>
       </c>
       <c r="F67">
-        <v>0.02265673807035914</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01914473753862023</v>
+      </c>
+      <c r="G67">
+        <v>0.01454970427331644</v>
+      </c>
+      <c r="H67">
+        <v>-0.04250572698579316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06166350342805223</v>
+        <v>0.1827918755699042</v>
       </c>
       <c r="C68">
-        <v>-0.03147404899755873</v>
+        <v>-0.01670750145768381</v>
       </c>
       <c r="D68">
-        <v>0.1425900081692443</v>
+        <v>-0.2243058273808835</v>
       </c>
       <c r="E68">
-        <v>0.1568122084857345</v>
+        <v>-0.004663986049056402</v>
       </c>
       <c r="F68">
-        <v>0.06486079131940781</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.03894844556775995</v>
+      </c>
+      <c r="G68">
+        <v>0.02489065888911187</v>
+      </c>
+      <c r="H68">
+        <v>0.05245604523492382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05392632609063883</v>
+        <v>0.06002327165711824</v>
       </c>
       <c r="C69">
-        <v>-0.04613225769541087</v>
+        <v>0.02666349972614767</v>
       </c>
       <c r="D69">
-        <v>0.009366523646664234</v>
+        <v>0.05046794656978447</v>
       </c>
       <c r="E69">
-        <v>-0.04202232479103773</v>
+        <v>0.001120194380952336</v>
       </c>
       <c r="F69">
-        <v>0.01235523887744015</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02880811481339306</v>
+      </c>
+      <c r="G69">
+        <v>-0.007107428870395355</v>
+      </c>
+      <c r="H69">
+        <v>-0.01182153109710447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06153559027479169</v>
+        <v>0.167322919176322</v>
       </c>
       <c r="C71">
-        <v>-0.03934373443009372</v>
+        <v>-0.004998782324077813</v>
       </c>
       <c r="D71">
-        <v>0.1282239548373433</v>
+        <v>-0.1831256513234229</v>
       </c>
       <c r="E71">
-        <v>0.2037648411009793</v>
+        <v>-0.01108859476586127</v>
       </c>
       <c r="F71">
-        <v>0.061655933168714</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04785051737453697</v>
+      </c>
+      <c r="G71">
+        <v>0.02977247020014171</v>
+      </c>
+      <c r="H71">
+        <v>0.01935040403252123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.08948997794205299</v>
+        <v>0.07111909978066079</v>
       </c>
       <c r="C72">
-        <v>-0.08398325423220956</v>
+        <v>0.03474653099731709</v>
       </c>
       <c r="D72">
-        <v>0.01173851609202542</v>
+        <v>0.0853630592012652</v>
       </c>
       <c r="E72">
-        <v>-0.07649009590746346</v>
+        <v>-0.01693792677634814</v>
       </c>
       <c r="F72">
-        <v>0.07514127220003573</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.064413060346258</v>
+      </c>
+      <c r="G72">
+        <v>0.02643341425258589</v>
+      </c>
+      <c r="H72">
+        <v>-0.1323301927722009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1494763011989508</v>
+        <v>0.2567627667186246</v>
       </c>
       <c r="C73">
-        <v>-0.2020284391407281</v>
+        <v>0.03569388198819526</v>
       </c>
       <c r="D73">
-        <v>-0.00839373387545045</v>
+        <v>0.1105689425265597</v>
       </c>
       <c r="E73">
-        <v>0.1006612762192148</v>
+        <v>-0.09583817854423195</v>
       </c>
       <c r="F73">
-        <v>0.2122322057641318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.05915364977303134</v>
+      </c>
+      <c r="G73">
+        <v>0.05478653127130285</v>
+      </c>
+      <c r="H73">
+        <v>-0.4580944117229926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1112245448266829</v>
+        <v>0.1116000523396839</v>
       </c>
       <c r="C74">
-        <v>-0.08409942532539121</v>
+        <v>0.0477448076043004</v>
       </c>
       <c r="D74">
-        <v>0.01134154158031107</v>
+        <v>0.118883872412671</v>
       </c>
       <c r="E74">
-        <v>-0.05345342955335278</v>
+        <v>0.01144334424051018</v>
       </c>
       <c r="F74">
-        <v>-0.08615213277441282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03957149106915874</v>
+      </c>
+      <c r="G74">
+        <v>-0.05419144820022986</v>
+      </c>
+      <c r="H74">
+        <v>0.01912242289595164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1772475086505011</v>
+        <v>0.2183609428887653</v>
       </c>
       <c r="C75">
-        <v>-0.1593345838643721</v>
+        <v>0.088417368605272</v>
       </c>
       <c r="D75">
-        <v>0.076795310709034</v>
+        <v>0.1808381185288901</v>
       </c>
       <c r="E75">
-        <v>-0.1262881114806607</v>
+        <v>-0.006976795090496293</v>
       </c>
       <c r="F75">
-        <v>-0.1106153298285067</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.09793982672680125</v>
+      </c>
+      <c r="G75">
+        <v>-0.1183385054938661</v>
+      </c>
+      <c r="H75">
+        <v>0.1135980370838404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2393330561809198</v>
+        <v>0.1768609845856995</v>
       </c>
       <c r="C76">
-        <v>-0.1560912666674431</v>
+        <v>0.0809467663912356</v>
       </c>
       <c r="D76">
-        <v>0.09565115325176581</v>
+        <v>0.1813698118111422</v>
       </c>
       <c r="E76">
-        <v>-0.1683976791961782</v>
+        <v>0.04090983536688601</v>
       </c>
       <c r="F76">
-        <v>-0.1945890839561429</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.09130238081178307</v>
+      </c>
+      <c r="G76">
+        <v>-0.1129686582603848</v>
+      </c>
+      <c r="H76">
+        <v>0.1135805347457633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09215673282760412</v>
+        <v>0.06218823087051238</v>
       </c>
       <c r="C77">
-        <v>-0.09128279567193281</v>
+        <v>0.009168145568177334</v>
       </c>
       <c r="D77">
-        <v>-0.1094767896260437</v>
+        <v>0.08471640867112588</v>
       </c>
       <c r="E77">
-        <v>-0.05527406056583591</v>
+        <v>-0.01874090000985472</v>
       </c>
       <c r="F77">
-        <v>0.1577483999825753</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01841705362266404</v>
+      </c>
+      <c r="G77">
+        <v>0.08025882693166581</v>
+      </c>
+      <c r="H77">
+        <v>-0.02378072142934548</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06245308203541675</v>
+        <v>0.03369327889235316</v>
       </c>
       <c r="C78">
-        <v>-0.04696833703036026</v>
+        <v>0.01125709578916552</v>
       </c>
       <c r="D78">
-        <v>-0.0624539138831512</v>
+        <v>0.07088152311804301</v>
       </c>
       <c r="E78">
-        <v>-0.07939513534938308</v>
+        <v>0.001162762216428875</v>
       </c>
       <c r="F78">
-        <v>0.09266568352173431</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01795485126245958</v>
+      </c>
+      <c r="G78">
+        <v>0.06822245286017059</v>
+      </c>
+      <c r="H78">
+        <v>-0.08973930568770273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.6656340329076491</v>
+        <v>0.1241751907822289</v>
       </c>
       <c r="C80">
-        <v>0.7261679234232987</v>
+        <v>0.02733652428359917</v>
       </c>
       <c r="D80">
-        <v>-0.07192757870289079</v>
+        <v>0.09724073296537095</v>
       </c>
       <c r="E80">
-        <v>0.002756697405178755</v>
+        <v>0.9300831218616599</v>
       </c>
       <c r="F80">
-        <v>0.04427112967843225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.2258358244548588</v>
+      </c>
+      <c r="G80">
+        <v>0.1642712429128564</v>
+      </c>
+      <c r="H80">
+        <v>0.005989511160680848</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1486691576917797</v>
+        <v>0.1452681181986925</v>
       </c>
       <c r="C81">
-        <v>-0.1138984267756854</v>
+        <v>0.05765447038495621</v>
       </c>
       <c r="D81">
-        <v>0.07887820384188964</v>
+        <v>0.1190125724246838</v>
       </c>
       <c r="E81">
-        <v>-0.1024580714785698</v>
+        <v>0.01124603141123386</v>
       </c>
       <c r="F81">
-        <v>-0.1086566664878398</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.06706136030456518</v>
+      </c>
+      <c r="G81">
+        <v>-0.07523493391258927</v>
+      </c>
+      <c r="H81">
+        <v>0.07158925869080759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02567307401784844</v>
+        <v>0.03093974872983249</v>
       </c>
       <c r="C83">
-        <v>-0.03152743115668682</v>
+        <v>0.004591133091763153</v>
       </c>
       <c r="D83">
-        <v>-0.0195535484815186</v>
+        <v>0.0255550877119664</v>
       </c>
       <c r="E83">
-        <v>-0.0119379206281615</v>
+        <v>-0.009117286003400806</v>
       </c>
       <c r="F83">
-        <v>0.06347495165991167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.008423347465232059</v>
+      </c>
+      <c r="G83">
+        <v>0.04433269719017079</v>
+      </c>
+      <c r="H83">
+        <v>-0.04188169857025857</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2094051832586434</v>
+        <v>0.1985850249235716</v>
       </c>
       <c r="C85">
-        <v>-0.1682349405140477</v>
+        <v>0.072104355443129</v>
       </c>
       <c r="D85">
-        <v>0.06829490714794496</v>
+        <v>0.1902301076744788</v>
       </c>
       <c r="E85">
-        <v>-0.1246806433101355</v>
+        <v>-0.004160082349922512</v>
       </c>
       <c r="F85">
-        <v>-0.1383715007671296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08090500999116103</v>
+      </c>
+      <c r="G85">
+        <v>-0.1305883553968375</v>
+      </c>
+      <c r="H85">
+        <v>0.07362726007661194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01180073536989789</v>
+        <v>0.01945503055440951</v>
       </c>
       <c r="C86">
-        <v>-0.004310574203826517</v>
+        <v>0.002110097298701803</v>
       </c>
       <c r="D86">
-        <v>-0.04196333604390716</v>
+        <v>0.04136500489880406</v>
       </c>
       <c r="E86">
-        <v>-0.03328026304907476</v>
+        <v>0.00361317161998044</v>
       </c>
       <c r="F86">
-        <v>0.05192308923540066</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.006398506619977279</v>
+      </c>
+      <c r="G86">
+        <v>0.05330278968634803</v>
+      </c>
+      <c r="H86">
+        <v>-0.09700227589781794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03749371959718836</v>
+        <v>0.02018299798409029</v>
       </c>
       <c r="C87">
-        <v>-0.02128236120784015</v>
+        <v>0.001877383229955417</v>
       </c>
       <c r="D87">
-        <v>-0.02894247247730761</v>
+        <v>0.04799598553367897</v>
       </c>
       <c r="E87">
-        <v>-0.01461348297584586</v>
+        <v>0.00181238328074841</v>
       </c>
       <c r="F87">
-        <v>0.1139715648379114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.0009835382267628535</v>
+      </c>
+      <c r="G87">
+        <v>0.08729169712643542</v>
+      </c>
+      <c r="H87">
+        <v>-0.08346636300541818</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01639584281542833</v>
+        <v>0.03778435884743227</v>
       </c>
       <c r="C88">
-        <v>0.002372087289387586</v>
+        <v>-0.01190753087707802</v>
       </c>
       <c r="D88">
-        <v>0.01220281521955999</v>
+        <v>0.02351272825313043</v>
       </c>
       <c r="E88">
-        <v>-0.01137302481688987</v>
+        <v>0.01547757817633536</v>
       </c>
       <c r="F88">
-        <v>-0.01261471594500077</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01813190830919446</v>
+      </c>
+      <c r="G88">
+        <v>-0.0008096697142708821</v>
+      </c>
+      <c r="H88">
+        <v>-0.01481256527593354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08168098206876129</v>
+        <v>0.286444808234165</v>
       </c>
       <c r="C89">
-        <v>-0.05621145469045591</v>
+        <v>-0.01158985837353025</v>
       </c>
       <c r="D89">
-        <v>0.219208063342238</v>
+        <v>-0.3241134271500729</v>
       </c>
       <c r="E89">
-        <v>0.2615788324029091</v>
+        <v>-0.01205015138909683</v>
       </c>
       <c r="F89">
-        <v>0.0945457756131358</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02420669930943351</v>
+      </c>
+      <c r="G89">
+        <v>-0.01794807368546749</v>
+      </c>
+      <c r="H89">
+        <v>-0.01694484931914178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07793530061139847</v>
+        <v>0.2354451019630725</v>
       </c>
       <c r="C90">
-        <v>-0.02956006962120207</v>
+        <v>-0.01119143670428351</v>
       </c>
       <c r="D90">
-        <v>0.2305994185346058</v>
+        <v>-0.2952100754730567</v>
       </c>
       <c r="E90">
-        <v>0.2835819079004654</v>
+        <v>-0.0009342448514593207</v>
       </c>
       <c r="F90">
-        <v>0.06124987916200838</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05211865905323334</v>
+      </c>
+      <c r="G90">
+        <v>-0.01185252662661572</v>
+      </c>
+      <c r="H90">
+        <v>0.04484245872828515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2376119223360724</v>
+        <v>0.2154062832755976</v>
       </c>
       <c r="C91">
-        <v>-0.2102289336566996</v>
+        <v>0.08477058650376888</v>
       </c>
       <c r="D91">
-        <v>0.07461065969160811</v>
+        <v>0.17092594211149</v>
       </c>
       <c r="E91">
-        <v>-0.1296996079177236</v>
+        <v>-0.01009480645344683</v>
       </c>
       <c r="F91">
-        <v>-0.2315306944563868</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08603332103692585</v>
+      </c>
+      <c r="G91">
+        <v>-0.1420680461309985</v>
+      </c>
+      <c r="H91">
+        <v>0.1485525379871799</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1380846539850684</v>
+        <v>0.270677241728064</v>
       </c>
       <c r="C92">
-        <v>-0.07900205592943102</v>
+        <v>0.05203298557008389</v>
       </c>
       <c r="D92">
-        <v>0.381202593148904</v>
+        <v>-0.215452294335225</v>
       </c>
       <c r="E92">
-        <v>0.2106680722908562</v>
+        <v>0.008157890448737701</v>
       </c>
       <c r="F92">
-        <v>-0.06479398203912111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.01434091253387794</v>
+      </c>
+      <c r="G92">
+        <v>0.02632769892868015</v>
+      </c>
+      <c r="H92">
+        <v>0.1144271947789721</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06428954270222796</v>
+        <v>0.2627379925883883</v>
       </c>
       <c r="C93">
-        <v>-0.05918130926423082</v>
+        <v>-0.001787929492641533</v>
       </c>
       <c r="D93">
-        <v>0.2764922287716794</v>
+        <v>-0.3033396921008599</v>
       </c>
       <c r="E93">
-        <v>0.367521100580804</v>
+        <v>-0.02886534160770696</v>
       </c>
       <c r="F93">
-        <v>0.0392039315505012</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05151123976009593</v>
+      </c>
+      <c r="G93">
+        <v>-0.01047634135138543</v>
+      </c>
+      <c r="H93">
+        <v>-0.01186988669692071</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2301452725541607</v>
+        <v>0.2661745374090392</v>
       </c>
       <c r="C94">
-        <v>-0.2144179576910127</v>
+        <v>0.08123486195221544</v>
       </c>
       <c r="D94">
-        <v>0.1528115707162815</v>
+        <v>0.1765199831787896</v>
       </c>
       <c r="E94">
-        <v>-0.1954319063550687</v>
+        <v>-0.01738976366711162</v>
       </c>
       <c r="F94">
-        <v>-0.1805260330730562</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1966006874290537</v>
+      </c>
+      <c r="G94">
+        <v>-0.2617220881179703</v>
+      </c>
+      <c r="H94">
+        <v>0.3503560578188774</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.006821784287864824</v>
+        <v>0.04579528652159121</v>
       </c>
       <c r="C95">
-        <v>-0.08578721131807332</v>
+        <v>0.0299439200544835</v>
       </c>
       <c r="D95">
-        <v>-0.05780826785231045</v>
+        <v>0.09127211495371494</v>
       </c>
       <c r="E95">
-        <v>-0.04102545758001152</v>
+        <v>-0.08035624071534962</v>
       </c>
       <c r="F95">
-        <v>0.01380956950427699</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.008351033948633839</v>
+      </c>
+      <c r="G95">
+        <v>0.04415446454750874</v>
+      </c>
+      <c r="H95">
+        <v>-0.05214357293564312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1173268134336189</v>
+        <v>0.1827375746087324</v>
       </c>
       <c r="C98">
-        <v>-0.1276311366301701</v>
+        <v>0.05154436630654</v>
       </c>
       <c r="D98">
-        <v>-0.01435800867614924</v>
+        <v>0.05089605268221759</v>
       </c>
       <c r="E98">
-        <v>0.08821556214550359</v>
+        <v>-0.06235764330909133</v>
       </c>
       <c r="F98">
-        <v>0.1464761711106085</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.00610235615495876</v>
+      </c>
+      <c r="G98">
+        <v>0.09127329845223858</v>
+      </c>
+      <c r="H98">
+        <v>-0.3306312364795553</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01130740687394907</v>
+        <v>0.01426559431806079</v>
       </c>
       <c r="C101">
-        <v>-0.0006432072719501318</v>
+        <v>-0.000800120238849254</v>
       </c>
       <c r="D101">
-        <v>-0.02944833583188102</v>
+        <v>0.01690349517556128</v>
       </c>
       <c r="E101">
-        <v>-0.07139503131996558</v>
+        <v>0.003389630685987605</v>
       </c>
       <c r="F101">
-        <v>0.177964772941621</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01583263999544465</v>
+      </c>
+      <c r="G101">
+        <v>0.101759395718656</v>
+      </c>
+      <c r="H101">
+        <v>0.01763822902264367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09578334161108153</v>
+        <v>0.09747269471588937</v>
       </c>
       <c r="C102">
-        <v>-0.0746190709187286</v>
+        <v>0.0282141432042376</v>
       </c>
       <c r="D102">
-        <v>0.03166235024681435</v>
+        <v>0.09188206154597547</v>
       </c>
       <c r="E102">
-        <v>-0.07281659467741398</v>
+        <v>0.003477869447209964</v>
       </c>
       <c r="F102">
-        <v>-0.08723200439678243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.04807745342027398</v>
+      </c>
+      <c r="G102">
+        <v>-0.06719161593794377</v>
+      </c>
+      <c r="H102">
+        <v>0.0557494992111789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04119138138565077</v>
+        <v>0.01440790554666288</v>
       </c>
       <c r="C103">
-        <v>-0.01794966761144982</v>
+        <v>0.005437047613807488</v>
       </c>
       <c r="D103">
-        <v>0.006061119391186074</v>
+        <v>0.0168889319569735</v>
       </c>
       <c r="E103">
-        <v>-0.0452389914722101</v>
+        <v>0.01185569543705717</v>
       </c>
       <c r="F103">
-        <v>-0.00194188651420079</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.007299964569648986</v>
+      </c>
+      <c r="G103">
+        <v>0.002871960362139704</v>
+      </c>
+      <c r="H103">
+        <v>0.01194961207354126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1585654213673557</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9655740596555353</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1161785378313171</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02620944617139783</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1301101129049626</v>
+      </c>
+      <c r="G104">
+        <v>-0.008202646799438908</v>
+      </c>
+      <c r="H104">
+        <v>0.04685432953207586</v>
       </c>
     </row>
   </sheetData>
